--- a/data/georgia_census/racha/cageri/age_dependency.xlsx
+++ b/data/georgia_census/racha/cageri/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E776B584-1E64-4455-AFF9-AAB7371FEEE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3AD6BA2-D99F-4487-B5DC-DF3AE0625584}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB802AE-8B15-408C-8FAE-917D11C2AF4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F3BBCF-7F74-4CDD-A75E-604D21EF17C4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C65C84D-194C-4A02-90F7-4372E02F5944}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB64B1C4-66C9-43F4-82FF-093AFB09CE05}"/>
 </file>